--- a/confirmed.xlsx
+++ b/confirmed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFE069-EFA2-4897-9B55-7F910B5216BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146BD29D-D080-4AF3-879E-BC8F20F33A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,6 +872,128 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43913</v>
+      </c>
+      <c r="F22">
+        <f>266+35</f>
+        <v>301</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43914</v>
+      </c>
+      <c r="F23">
+        <v>387</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43915</v>
+      </c>
+      <c r="F24">
+        <v>502</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43916</v>
+      </c>
+      <c r="F25">
+        <v>589</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43917</v>
+      </c>
+      <c r="F26">
+        <f>589+101</f>
+        <v>690</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F27">
+        <v>745</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/confirmed.xlsx
+++ b/confirmed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146BD29D-D080-4AF3-879E-BC8F20F33A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC64AF7-E677-4729-9321-E4512D76C40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +994,66 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F28">
+        <v>820</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43920</v>
+      </c>
+      <c r="F29">
+        <v>966</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F30">
+        <v>1054</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/confirmed.xlsx
+++ b/confirmed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC64AF7-E677-4729-9321-E4512D76C40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72967CF-3560-4ABA-B38F-FA8393DDA719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>confirmed</t>
+  </si>
+  <si>
+    <t>n-times</t>
+  </si>
+  <si>
+    <t>n-day-rolling average</t>
   </si>
 </sst>
 </file>
@@ -100,10 +106,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +450,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -452,10 +459,26 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -475,8 +498,24 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" t="e">
+        <f ca="1">LOG(J$1,10)/LOG($P2/$P1,10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K2" t="e">
+        <f t="shared" ref="K2:L2" ca="1" si="0">LOG(K$1,10)/LOG($P2/$P1,10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" t="e">
+        <f ca="1">AVERAGE($F1:OFFSET($F1,-P$1,0))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -496,8 +535,24 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J66" ca="1" si="1">LOG(J$1,10)/LOG($P3/$P2,10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K66" ca="1" si="2">LOG(K$1,10)/LOG($P3/$P2,10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ref="L3:L66" ca="1" si="3">LOG(L$1,10)/LOG($P3/$P2,10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P3" t="e">
+        <f ca="1">AVERAGE($F2:OFFSET($F2,-P$1,0))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -517,8 +572,24 @@
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P4" t="e">
+        <f ca="1">AVERAGE($F3:OFFSET($F3,-P$1,0))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -538,8 +609,24 @@
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P5" t="e">
+        <f ca="1">AVERAGE($F4:OFFSET($F4,-P$1,0))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,8 +646,24 @@
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P6" t="e">
+        <f ca="1">AVERAGE($F5:OFFSET($F5,-P$1,0))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -580,8 +683,24 @@
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P7">
+        <f ca="1">AVERAGE($F6:OFFSET($F6,-P$1,0))</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -601,8 +720,24 @@
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f ca="1">LOG(J$1,10)/LOG($P8/$P7,10)</f>
+        <v>1.4697624324127752</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4126826846292109</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.8824451170419865</v>
+      </c>
+      <c r="P8">
+        <f ca="1">AVERAGE($F7:OFFSET($F7,-P$1,0))</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -622,8 +757,24 @@
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.401157158557079</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2533861718062282</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.6545433303633077</v>
+      </c>
+      <c r="P9">
+        <f ca="1">AVERAGE($F8:OFFSET($F8,-P$1,0))</f>
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -643,8 +794,24 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9044316409699882</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4219533319606583</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3263849729306472</v>
+      </c>
+      <c r="P10">
+        <f ca="1">AVERAGE($F9:OFFSET($F9,-P$1,0))</f>
+        <v>9.8333333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -664,8 +831,24 @@
       <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3745202645433685</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5134653141226195</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.8879855786659885</v>
+      </c>
+      <c r="P11">
+        <f ca="1">AVERAGE($F10:OFFSET($F10,-P$1,0))</f>
+        <v>13.166666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,8 +868,24 @@
       <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2167701794822259</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1471809596482823</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.363951139130509</v>
+      </c>
+      <c r="P12">
+        <f ca="1">AVERAGE($F11:OFFSET($F11,-P$1,0))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -706,8 +905,24 @@
       <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.213350176475581</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4611680534699154</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.674518229945498</v>
+      </c>
+      <c r="P13">
+        <f ca="1">AVERAGE($F12:OFFSET($F12,-P$1,0))</f>
+        <v>22.333333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -727,8 +942,24 @@
       <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1484648987148725</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.3105091040927563</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.458974002807629</v>
+      </c>
+      <c r="P14">
+        <f ca="1">AVERAGE($F13:OFFSET($F13,-P$1,0))</f>
+        <v>27.833333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -748,8 +979,24 @@
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3025509744547938</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6682858923842225</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.970836866839017</v>
+      </c>
+      <c r="P15">
+        <f ca="1">AVERAGE($F14:OFFSET($F14,-P$1,0))</f>
+        <v>34.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -769,8 +1016,24 @@
       <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4390332075346395</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9851878238252816</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.424221031359922</v>
+      </c>
+      <c r="P16">
+        <f ca="1">AVERAGE($F15:OFFSET($F15,-P$1,0))</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -789,8 +1052,24 @@
       <c r="G17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3462220686248854</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.7696870328722296</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.115909101497117</v>
+      </c>
+      <c r="P17">
+        <f ca="1">AVERAGE($F16:OFFSET($F16,-P$1,0))</f>
+        <v>51.666666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +1089,24 @@
       <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5911227193124025</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3383287341597718</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.929451453472176</v>
+      </c>
+      <c r="P18">
+        <f ca="1">AVERAGE($F17:OFFSET($F17,-P$1,0))</f>
+        <v>62.666666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,8 +1126,24 @@
       <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1062837195053894</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2125674390107797</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.318851158516171</v>
+      </c>
+      <c r="P19">
+        <f ca="1">AVERAGE($F18:OFFSET($F18,-P$1,0))</f>
+        <v>78.333333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +1162,24 @@
       <c r="G20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2171396161819805</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4699668599880873</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.687106476170069</v>
+      </c>
+      <c r="P20">
+        <f ca="1">AVERAGE($F19:OFFSET($F19,-P$1,0))</f>
+        <v>97.166666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,8 +1198,24 @@
       <c r="G21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7230388093120865</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3227003148103655</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.0457391241224521</v>
+      </c>
+      <c r="P21">
+        <f ca="1">AVERAGE($F20:OFFSET($F20,-P$1,0))</f>
+        <v>125.33333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +1235,24 @@
       <c r="G22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9261707893766977</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7943581662924855</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.7205289556691845</v>
+      </c>
+      <c r="P22">
+        <f ca="1">AVERAGE($F21:OFFSET($F21,-P$1,0))</f>
+        <v>158.83333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +1271,24 @@
       <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3100237319916421</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6856370980553113</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.995660830046955</v>
+      </c>
+      <c r="P23">
+        <f ca="1">AVERAGE($F22:OFFSET($F22,-P$1,0))</f>
+        <v>195.83333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +1307,24 @@
       <c r="G24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1422834638594948</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2961562568353395</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.438439720694836</v>
+      </c>
+      <c r="P24">
+        <f ca="1">AVERAGE($F23:OFFSET($F23,-P$1,0))</f>
+        <v>244.16666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,8 +1343,24 @@
       <c r="G25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0485870224060188</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0785998570335442</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.127186879439565</v>
+      </c>
+      <c r="P25">
+        <f ca="1">AVERAGE($F24:OFFSET($F24,-P$1,0))</f>
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,8 +1380,24 @@
       <c r="G26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2919554529731028</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6436838533759017</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.935639306349005</v>
+      </c>
+      <c r="P26">
+        <f ca="1">AVERAGE($F25:OFFSET($F25,-P$1,0))</f>
+        <v>378.33333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1416,24 @@
       <c r="G27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7195664768421035</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6365659033808857</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.35613238022299</v>
+      </c>
+      <c r="P27">
+        <f ca="1">AVERAGE($F26:OFFSET($F26,-P$1,0))</f>
+        <v>455.83333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1452,24 @@
       <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2949958454536281</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9726715209832797</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.267667366436909</v>
+      </c>
+      <c r="P28">
+        <f ca="1">AVERAGE($F27:OFFSET($F27,-P$1,0))</f>
+        <v>535.66666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1488,24 @@
       <c r="G29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6303674952397866</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.751380376850486</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.381747872090274</v>
+      </c>
+      <c r="P29">
+        <f ca="1">AVERAGE($F28:OFFSET($F28,-P$1,0))</f>
+        <v>622.16666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1053,6 +1524,1849 @@
       <c r="G30" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8071914942643623</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.161952988035985</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.969144482300349</v>
+      </c>
+      <c r="P30">
+        <f ca="1">AVERAGE($F29:OFFSET($F29,-P$1,0))</f>
+        <v>718.66666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F31">
+        <v>1133</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7542017671924004</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.360842746894544</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="3"/>
+        <v>19.115044514086946</v>
+      </c>
+      <c r="P31">
+        <f ca="1">AVERAGE($F30:OFFSET($F30,-P$1,0))</f>
+        <v>810.66666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43923</v>
+      </c>
+      <c r="F32">
+        <v>1265</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5380021476110537</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.180770870972019</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.718773018583075</v>
+      </c>
+      <c r="P32">
+        <f ca="1">AVERAGE($F31:OFFSET($F31,-P$1,0))</f>
+        <v>901.33333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43924</v>
+      </c>
+      <c r="F33">
+        <v>1353</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.8599380409215547</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.928282866402332</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="3"/>
+        <v>22.78822090732389</v>
+      </c>
+      <c r="P33">
+        <f ca="1">AVERAGE($F32:OFFSET($F32,-P$1,0))</f>
+        <v>997.16666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43925</v>
+      </c>
+      <c r="F34">
+        <v>1451</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1618715286322825</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.6293507143052</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="3"/>
+        <v>23.791222242937486</v>
+      </c>
+      <c r="P34">
+        <f ca="1">AVERAGE($F33:OFFSET($F33,-P$1,0))</f>
+        <v>1098.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43926</v>
+      </c>
+      <c r="F35">
+        <v>1554</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.5814407958419556</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.603560383590644</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="3"/>
+        <v>25.1850011794326</v>
+      </c>
+      <c r="P35">
+        <f ca="1">AVERAGE($F34:OFFSET($F34,-P$1,0))</f>
+        <v>1203.6666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43927</v>
+      </c>
+      <c r="F36">
+        <v>1628</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8555033985769995</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.561842135526458</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.417345534103458</v>
+      </c>
+      <c r="P36">
+        <f ca="1">AVERAGE($F35:OFFSET($F35,-P$1,0))</f>
+        <v>1301.6666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43928</v>
+      </c>
+      <c r="F37">
+        <v>1715</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.7736263445083118</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="2"/>
+        <v>22.693657598245121</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="3"/>
+        <v>32.467283942753433</v>
+      </c>
+      <c r="P37">
+        <f ca="1">AVERAGE($F36:OFFSET($F36,-P$1,0))</f>
+        <v>1397.3333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43929</v>
+      </c>
+      <c r="F38">
+        <v>1795</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.327827713277507</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.98047332661535</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.308301039892861</v>
+      </c>
+      <c r="P38">
+        <f ca="1">AVERAGE($F37:OFFSET($F37,-P$1,0))</f>
+        <v>1494.3333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43930</v>
+      </c>
+      <c r="F39">
+        <v>1894</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.069214202598266</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.023847540226487</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.093061742824759</v>
+      </c>
+      <c r="P39">
+        <f ca="1">AVERAGE($F38:OFFSET($F38,-P$1,0))</f>
+        <v>1582.6666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43931</v>
+      </c>
+      <c r="F40">
+        <v>1975</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.50996409213303</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.047237091555761</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.557201183688797</v>
+      </c>
+      <c r="P40">
+        <f ca="1">AVERAGE($F39:OFFSET($F39,-P$1,0))</f>
+        <v>1672.8333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43932</v>
+      </c>
+      <c r="F41">
+        <v>2142</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.62057744010075</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.626001426758926</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.246578866859679</v>
+      </c>
+      <c r="P41">
+        <f ca="1">AVERAGE($F40:OFFSET($F40,-P$1,0))</f>
+        <v>1760.1666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43933</v>
+      </c>
+      <c r="F42">
+        <f>F41+66</f>
+        <v>2208</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.792980427925524</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.704380672944428</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.497361100869959</v>
+      </c>
+      <c r="P42">
+        <f ca="1">AVERAGE($F41:OFFSET($F41,-P$1,0))</f>
+        <v>1858.1666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43934</v>
+      </c>
+      <c r="F43">
+        <v>2277</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <f ca="1">LOG(J$1,2)/LOG($P43/$P42,2)</f>
+        <v>13.667606249937608</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.735198941588237</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.40280519152585</v>
+      </c>
+      <c r="P43">
+        <f ca="1">AVERAGE($F42:OFFSET($F42,-P$1,0))</f>
+        <v>1954.8333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43935</v>
+      </c>
+      <c r="F44">
+        <f>2276+167</f>
+        <v>2443</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.809925908395929</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="2"/>
+        <v>34.387583049904755</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="3"/>
+        <v>49.197508958300688</v>
+      </c>
+      <c r="P44">
+        <f ca="1">AVERAGE($F43:OFFSET($F43,-P$1,0))</f>
+        <v>2048.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43936</v>
+      </c>
+      <c r="F45">
+        <v>2571</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.490939297216359</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.324990980626637</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="3"/>
+        <v>44.815930277843002</v>
+      </c>
+      <c r="P45">
+        <f ca="1">AVERAGE($F44:OFFSET($F44,-P$1,0))</f>
+        <v>2156.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43937</v>
+      </c>
+      <c r="F46">
+        <v>2669</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.591236980204574</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.557874988609079</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.149111968813656</v>
+      </c>
+      <c r="P46">
+        <f ca="1">AVERAGE($F45:OFFSET($F45,-P$1,0))</f>
+        <v>2269.3333333333335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43938</v>
+      </c>
+      <c r="F47">
+        <v>2758</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.942970198476171</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="2"/>
+        <v>32.37457423001905</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="3"/>
+        <v>46.317544428495225</v>
+      </c>
+      <c r="P47">
+        <f ca="1">AVERAGE($F46:OFFSET($F46,-P$1,0))</f>
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43939</v>
+      </c>
+      <c r="F48">
+        <v>2839</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.446308291028146</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.187145278117214</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="3"/>
+        <v>54.633453569145367</v>
+      </c>
+      <c r="P48">
+        <f ca="1">AVERAGE($F47:OFFSET($F47,-P$1,0))</f>
+        <v>2487.6666666666665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43940</v>
+      </c>
+      <c r="F49">
+        <v>2941</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.740243468696555</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.869641625221199</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="3"/>
+        <v>55.609885093917761</v>
+      </c>
+      <c r="P49">
+        <f ca="1">AVERAGE($F48:OFFSET($F48,-P$1,0))</f>
+        <v>2592.8333333333335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43941</v>
+      </c>
+      <c r="F50">
+        <v>3031</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.58405504329636</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.506983332188277</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="3"/>
+        <v>55.091038375484636</v>
+      </c>
+      <c r="P50">
+        <f ca="1">AVERAGE($F49:OFFSET($F49,-P$1,0))</f>
+        <v>2703.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43942</v>
+      </c>
+      <c r="F51">
+        <v>3144</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.46618422289292</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="2"/>
+        <v>45.199080047388193</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="3"/>
+        <v>64.665264270281128</v>
+      </c>
+      <c r="P51">
+        <f ca="1">AVERAGE($F50:OFFSET($F50,-P$1,0))</f>
+        <v>2801.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43943</v>
+      </c>
+      <c r="F52">
+        <v>3288</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.678164370572937</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="2"/>
+        <v>48.013210802732161</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="3"/>
+        <v>68.691375173305104</v>
+      </c>
+      <c r="P52">
+        <f ca="1">AVERAGE($F51:OFFSET($F51,-P$1,0))</f>
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43944</v>
+      </c>
+      <c r="F53">
+        <v>3435</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.808662734321164</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="2"/>
+        <v>45.994290524968633</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ca="1" si="3"/>
+        <v>65.802953259289808</v>
+      </c>
+      <c r="P53">
+        <f ca="1">AVERAGE($F52:OFFSET($F52,-P$1,0))</f>
+        <v>3000.1666666666665</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43945</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3607</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.774784385966907</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.59369934122914</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ca="1" si="3"/>
+        <v>62.368483727196057</v>
+      </c>
+      <c r="P54">
+        <f ca="1">AVERAGE($F53:OFFSET($F53,-P$1,0))</f>
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43946</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3780</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.20180216061696</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.941347719430659</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ca="1" si="3"/>
+        <v>57.143149880047631</v>
+      </c>
+      <c r="P55">
+        <f ca="1">AVERAGE($F54:OFFSET($F54,-P$1,0))</f>
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43947</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3892</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.409616571970034</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.101949744786481</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ca="1" si="3"/>
+        <v>54.511566316756522</v>
+      </c>
+      <c r="P56">
+        <f ca="1">AVERAGE($F55:OFFSET($F55,-P$1,0))</f>
+        <v>3380.8333333333335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43948</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4003</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.674591302194905</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.717202015330798</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ca="1" si="3"/>
+        <v>55.39179331752571</v>
+      </c>
+      <c r="P57">
+        <f ca="1">AVERAGE($F56:OFFSET($F56,-P$1,0))</f>
+        <v>3524.3333333333335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43949</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4127</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.40747534208402</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="2"/>
+        <v>40.418906057843891</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ca="1" si="3"/>
+        <v>57.826381399927918</v>
+      </c>
+      <c r="P58">
+        <f ca="1">AVERAGE($F57:OFFSET($F57,-P$1,0))</f>
+        <v>3667.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43950</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4285</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.524035259417257</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.01147789952504</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ca="1" si="3"/>
+        <v>61.535513158942301</v>
+      </c>
+      <c r="P59">
+        <f ca="1">AVERAGE($F58:OFFSET($F58,-P$1,0))</f>
+        <v>3807.3333333333335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4428</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.972997732498907</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="2"/>
+        <v>44.053936479323433</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ca="1" si="3"/>
+        <v>63.026934211822351</v>
+      </c>
+      <c r="P60">
+        <f ca="1">AVERAGE($F59:OFFSET($F59,-P$1,0))</f>
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F61" s="1">
+        <f>4428+105</f>
+        <v>4533</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.348783028253955</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="2"/>
+        <v>47.248411010070001</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ca="1" si="3"/>
+        <v>67.597194038323963</v>
+      </c>
+      <c r="P61">
+        <f ca="1">AVERAGE($F60:OFFSET($F60,-P$1,0))</f>
+        <v>4085.8333333333335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4681</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.911231321613553</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="2"/>
+        <v>53.198231694117823</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ca="1" si="3"/>
+        <v>76.109463015731379</v>
+      </c>
+      <c r="P62">
+        <f ca="1">AVERAGE($F61:OFFSET($F61,-P$1,0))</f>
+        <v>4211.333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43954</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4783</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.543077611677582</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="2"/>
+        <v>52.343405251780482</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ca="1" si="3"/>
+        <v>74.88648286345807</v>
+      </c>
+      <c r="P63">
+        <f ca="1">AVERAGE($F62:OFFSET($F62,-P$1,0))</f>
+        <v>4342.833333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4887</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.500428993850896</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="2"/>
+        <v>54.566306322727947</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ca="1" si="3"/>
+        <v>78.066735316578843</v>
+      </c>
+      <c r="P64">
+        <f ca="1">AVERAGE($F63:OFFSET($F63,-P$1,0))</f>
+        <v>4472.833333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F65">
+        <v>5020</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.821264364513258</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="2"/>
+        <v>57.633191078589853</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ca="1" si="3"/>
+        <v>82.454455443103114</v>
+      </c>
+      <c r="P65">
+        <f ca="1">AVERAGE($F64:OFFSET($F64,-P$1,0))</f>
+        <v>4599.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43957</v>
+      </c>
+      <c r="F66">
+        <v>5208</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.370610086958468</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="2"/>
+        <v>61.230660440228938</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ca="1" si="3"/>
+        <v>87.601270527187424</v>
+      </c>
+      <c r="P66">
+        <f ca="1">AVERAGE($F65:OFFSET($F65,-P$1,0))</f>
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43958</v>
+      </c>
+      <c r="F67">
+        <v>5371</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J83" ca="1" si="4">LOG(J$1,10)/LOG($P67/$P66,10)</f>
+        <v>25.522243228554075</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K83" ca="1" si="5">LOG(K$1,10)/LOG($P67/$P66,10)</f>
+        <v>59.260813596928458</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L83" ca="1" si="6">LOG(L$1,10)/LOG($P67/$P66,10)</f>
+        <v>84.783056825482547</v>
+      </c>
+      <c r="P67">
+        <f ca="1">AVERAGE($F66:OFFSET($F66,-P$1,0))</f>
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43959</v>
+      </c>
+      <c r="F68">
+        <v>5611</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.424768180103417</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="5"/>
+        <v>56.712555448492999</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ca="1" si="6"/>
+        <v>81.137323628596434</v>
+      </c>
+      <c r="P68">
+        <f ca="1">AVERAGE($F67:OFFSET($F67,-P$1,0))</f>
+        <v>4991.666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43960</v>
+      </c>
+      <c r="F69">
+        <v>5776</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.667127774591702</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="5"/>
+        <v>52.631440810226131</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ca="1" si="6"/>
+        <v>75.298568584817843</v>
+      </c>
+      <c r="P69">
+        <f ca="1">AVERAGE($F68:OFFSET($F68,-P$1,0))</f>
+        <v>5146.666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43961</v>
+      </c>
+      <c r="F70">
+        <v>6034</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.900017252988686</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="5"/>
+        <v>50.85026533823239</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.75028259122108</v>
+      </c>
+      <c r="P70">
+        <f ca="1">AVERAGE($F69:OFFSET($F69,-P$1,0))</f>
+        <v>5312.166666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>43962</v>
+      </c>
+      <c r="F71">
+        <v>6278</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.60580445594076</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="5"/>
+        <v>45.523268189116692</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ca="1" si="6"/>
+        <v>65.129072645057462</v>
+      </c>
+      <c r="P71">
+        <f ca="1">AVERAGE($F70:OFFSET($F70,-P$1,0))</f>
+        <v>5503.333333333333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>43963</v>
+      </c>
+      <c r="F72">
+        <v>6563</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.538149902777498</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="5"/>
+        <v>43.044251086492501</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ca="1" si="6"/>
+        <v>61.582400989270006</v>
+      </c>
+      <c r="P72">
+        <f ca="1">AVERAGE($F71:OFFSET($F71,-P$1,0))</f>
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43964</v>
+      </c>
+      <c r="F73">
+        <v>6879</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.879167545381325</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="5"/>
+        <v>41.514141436819223</v>
+      </c>
+      <c r="L73">
+        <f t="shared" ca="1" si="6"/>
+        <v>59.393308982200551</v>
+      </c>
+      <c r="P73">
+        <f ca="1">AVERAGE($F72:OFFSET($F72,-P$1,0))</f>
+        <v>5938.833333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>43965</v>
+      </c>
+      <c r="F74">
+        <v>7134</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.722769297131205</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="5"/>
+        <v>38.829067855328738</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ca="1" si="6"/>
+        <v>55.551837152459953</v>
+      </c>
+      <c r="P74">
+        <f ca="1">AVERAGE($F73:OFFSET($F73,-P$1,0))</f>
+        <v>6190.166666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43966</v>
+      </c>
+      <c r="F75">
+        <v>7479</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.247850123749057</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="5"/>
+        <v>40.048267778739408</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ca="1" si="6"/>
+        <v>57.296117902488469</v>
+      </c>
+      <c r="P75">
+        <f ca="1">AVERAGE($F74:OFFSET($F74,-P$1,0))</f>
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43967</v>
+      </c>
+      <c r="F76">
+        <v>7805</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.08092629031124</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="5"/>
+        <v>37.338754545286484</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ca="1" si="6"/>
+        <v>53.419680835597731</v>
+      </c>
+      <c r="P76">
+        <f ca="1">AVERAGE($F75:OFFSET($F75,-P$1,0))</f>
+        <v>6727.833333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43968</v>
+      </c>
+      <c r="F77" s="1">
+        <v>8068</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.143230854039544</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="5"/>
+        <v>37.483421262246928</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ca="1" si="6"/>
+        <v>53.626652116286479</v>
+      </c>
+      <c r="P77">
+        <f ca="1">AVERAGE($F76:OFFSET($F76,-P$1,0))</f>
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>43969</v>
+      </c>
+      <c r="F78" s="1">
+        <v>8371</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.661397391459477</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="5"/>
+        <v>38.686566703312771</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ca="1" si="6"/>
+        <v>55.347964094772252</v>
+      </c>
+      <c r="P78">
+        <f ca="1">AVERAGE($F77:OFFSET($F77,-P$1,0))</f>
+        <v>7321.333333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43970</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8809</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.185266750838228</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="5"/>
+        <v>39.902953686904937</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ca="1" si="6"/>
+        <v>57.088220437743175</v>
+      </c>
+      <c r="P79">
+        <f ca="1">AVERAGE($F78:OFFSET($F78,-P$1,0))</f>
+        <v>7622.666666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43971</v>
+      </c>
+      <c r="F80" s="1">
+        <v>9283</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.769978653602877</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="5"/>
+        <v>38.938684586461868</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ca="1" si="6"/>
+        <v>55.708663240064752</v>
+      </c>
+      <c r="P80">
+        <f ca="1">AVERAGE($F79:OFFSET($F79,-P$1,0))</f>
+        <v>7944.333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/confirmed.xlsx
+++ b/confirmed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72967CF-3560-4ABA-B38F-FA8393DDA719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF028A-3762-4AF1-8C1D-7753F99A1192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
